--- a/ValueSet-ValueSet-R5-testscript-operation-codes-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-testscript-operation-codes-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ValueSet-R5-testscript-operation-codes-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-testscript-operation-codes-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,9 +96,7 @@
 in FHIR R4.
 The source value set is bound to the following FHIR R5 elements:
 * `ExampleScenario.process.step.operation.type` as Extensible
-* `TestScript.setup.action.operation.type` as Extensible
-* `TestScript.teardown.action.operation.type` as Extensible
-* `TestScript.test.action.operation.type` as Extensible
+* `TestScript.setup.action.operation.type` as Extensible
 Across FHIR versions, the value set has been mapped as:
 * `http://hl7.org/fhir/ValueSet/testscript-operation-codes|5.0.0`
 * `http://hl7.org/fhir/ValueSet/testscript-operation-codes|4.3.0`
